--- a/contratos/contratos-11-2017.xlsx
+++ b/contratos/contratos-11-2017.xlsx
@@ -829,7 +829,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -940,7 +940,7 @@
     <t>MENDIETA NICOLAS BERNARDO</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>BIOMED MEDICAL DEVICES S.R.L.</t>
@@ -1129,7 +1129,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SPIROPULO ALEXIS YAMIL</t>
@@ -1150,7 +1150,7 @@
     <t>WEIGANDT GERARDO ARTURO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1174,7 +1174,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1720,661 +1720,661 @@
     <t>75</t>
   </si>
   <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.005,00</t>
-  </si>
-  <si>
-    <t>3.010,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>850.000,00</t>
-  </si>
-  <si>
-    <t>486.578,83</t>
-  </si>
-  <si>
-    <t>9.438,00</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>465.298,50</t>
-  </si>
-  <si>
-    <t>194.123,49</t>
-  </si>
-  <si>
-    <t>18.636,80</t>
-  </si>
-  <si>
-    <t>123.941,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>45.386,86</t>
-  </si>
-  <si>
-    <t>489,00</t>
-  </si>
-  <si>
-    <t>38.542,73</t>
-  </si>
-  <si>
-    <t>20.237,67</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>1.364,42</t>
-  </si>
-  <si>
-    <t>116,00</t>
-  </si>
-  <si>
-    <t>52,00</t>
-  </si>
-  <si>
-    <t>7.045,00</t>
-  </si>
-  <si>
-    <t>3.605,55</t>
-  </si>
-  <si>
-    <t>19,61</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>3.130,00</t>
-  </si>
-  <si>
-    <t>527.600,00</t>
-  </si>
-  <si>
-    <t>19.085,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>1.573,00</t>
-  </si>
-  <si>
-    <t>8.887,78</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>3.449,40</t>
-  </si>
-  <si>
-    <t>35.305,70</t>
-  </si>
-  <si>
-    <t>2.831,09</t>
-  </si>
-  <si>
-    <t>257,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>883,80</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>9.606,00</t>
-  </si>
-  <si>
-    <t>6.603,30</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>4.640,90</t>
-  </si>
-  <si>
-    <t>10.609,33</t>
-  </si>
-  <si>
-    <t>2.089,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>2.115,00</t>
-  </si>
-  <si>
-    <t>1.220,00</t>
-  </si>
-  <si>
-    <t>11.854,02</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>6.294,99</t>
-  </si>
-  <si>
-    <t>32.445,00</t>
-  </si>
-  <si>
-    <t>19.750,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>114,59</t>
-  </si>
-  <si>
-    <t>696,00</t>
-  </si>
-  <si>
-    <t>2.189,39</t>
-  </si>
-  <si>
-    <t>391,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.101,00</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>889,80</t>
-  </si>
-  <si>
-    <t>1.053,60</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>39.796,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>32.380,00</t>
-  </si>
-  <si>
-    <t>48.800,00</t>
-  </si>
-  <si>
-    <t>2.812,10</t>
-  </si>
-  <si>
-    <t>13.770,00</t>
-  </si>
-  <si>
-    <t>20.625,00</t>
-  </si>
-  <si>
-    <t>21.943,00</t>
-  </si>
-  <si>
-    <t>3.990,00</t>
-  </si>
-  <si>
-    <t>81.407,00</t>
-  </si>
-  <si>
-    <t>61.257,79</t>
-  </si>
-  <si>
-    <t>572,03</t>
-  </si>
-  <si>
-    <t>45.900,00</t>
-  </si>
-  <si>
-    <t>28.314,00</t>
-  </si>
-  <si>
-    <t>2.670,00</t>
-  </si>
-  <si>
-    <t>21,17</t>
-  </si>
-  <si>
-    <t>2.939,00</t>
-  </si>
-  <si>
-    <t>600.235,87</t>
-  </si>
-  <si>
-    <t>3.189,89</t>
-  </si>
-  <si>
-    <t>247,76</t>
-  </si>
-  <si>
-    <t>18,12</t>
-  </si>
-  <si>
-    <t>23.953,63</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>8.196,00</t>
-  </si>
-  <si>
-    <t>292,74</t>
-  </si>
-  <si>
-    <t>14.835,92</t>
-  </si>
-  <si>
-    <t>55.520,80</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>246,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>346,00</t>
-  </si>
-  <si>
-    <t>113.151,40</t>
-  </si>
-  <si>
-    <t>6.978,00</t>
-  </si>
-  <si>
-    <t>6.880,00</t>
-  </si>
-  <si>
-    <t>49.202,35</t>
-  </si>
-  <si>
-    <t>10.061,00</t>
-  </si>
-  <si>
-    <t>10.144,80</t>
-  </si>
-  <si>
-    <t>10.739,81</t>
-  </si>
-  <si>
-    <t>1.035,20</t>
-  </si>
-  <si>
-    <t>11.246,22</t>
-  </si>
-  <si>
-    <t>2.750,00</t>
-  </si>
-  <si>
-    <t>354,00</t>
-  </si>
-  <si>
-    <t>7.753,80</t>
-  </si>
-  <si>
-    <t>6.390,00</t>
-  </si>
-  <si>
-    <t>4.686,00</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>63.000,00</t>
-  </si>
-  <si>
-    <t>641.152,00</t>
-  </si>
-  <si>
-    <t>84.700,00</t>
-  </si>
-  <si>
-    <t>11.609,00</t>
-  </si>
-  <si>
-    <t>16.371,00</t>
-  </si>
-  <si>
-    <t>11.902,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>15.372,00</t>
-  </si>
-  <si>
-    <t>66.400,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>2.190,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>36.500,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>261.940,00</t>
-  </si>
-  <si>
-    <t>16.626,05</t>
-  </si>
-  <si>
-    <t>309,00</t>
-  </si>
-  <si>
-    <t>11.735,55</t>
-  </si>
-  <si>
-    <t>6.748,88</t>
-  </si>
-  <si>
-    <t>3.360,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>2.020,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>25.116,58</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>13.260,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>2.359,50</t>
-  </si>
-  <si>
-    <t>4.750,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>144,42</t>
-  </si>
-  <si>
-    <t>9.515,00</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>4.997,60</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>19.830,00</t>
-  </si>
-  <si>
-    <t>22,34</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>1.078,00</t>
-  </si>
-  <si>
-    <t>5.155,00</t>
-  </si>
-  <si>
-    <t>6.433,85</t>
-  </si>
-  <si>
-    <t>65,32</t>
-  </si>
-  <si>
-    <t>26.897,31</t>
-  </si>
-  <si>
-    <t>6.782,14</t>
-  </si>
-  <si>
-    <t>3.690,50</t>
-  </si>
-  <si>
-    <t>8.240,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>13.350,00</t>
-  </si>
-  <si>
-    <t>1.215,89</t>
-  </si>
-  <si>
-    <t>4.106,53</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>3.551,20</t>
-  </si>
-  <si>
-    <t>48.249,25</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>50.207,10</t>
-  </si>
-  <si>
-    <t>2.135,98</t>
-  </si>
-  <si>
-    <t>36.630,00</t>
-  </si>
-  <si>
-    <t>65.894,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>8.844,00</t>
-  </si>
-  <si>
-    <t>62.594,13</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>44.400,00</t>
-  </si>
-  <si>
-    <t>3.019.313,66</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>18.400,00</t>
-  </si>
-  <si>
-    <t>139.500,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>146.000,00</t>
-  </si>
-  <si>
-    <t>141.100,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>347.000,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>140.250,00</t>
-  </si>
-  <si>
-    <t>34.623,36</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>69.450,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>83.734,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>1.184.830,00</t>
-  </si>
-  <si>
-    <t>7.405,00</t>
-  </si>
-  <si>
-    <t>25.878,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>3.570,00</t>
-  </si>
-  <si>
-    <t>47.845,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3005.00</t>
+  </si>
+  <si>
+    <t>3010.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>850000.00</t>
+  </si>
+  <si>
+    <t>486578.83</t>
+  </si>
+  <si>
+    <t>9438.00</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>465298.50</t>
+  </si>
+  <si>
+    <t>194123.49</t>
+  </si>
+  <si>
+    <t>18636.80</t>
+  </si>
+  <si>
+    <t>123941.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>45386.86</t>
+  </si>
+  <si>
+    <t>489.00</t>
+  </si>
+  <si>
+    <t>38542.73</t>
+  </si>
+  <si>
+    <t>20237.67</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>1364.42</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>7045.00</t>
+  </si>
+  <si>
+    <t>3605.55</t>
+  </si>
+  <si>
+    <t>19.61</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>3130.00</t>
+  </si>
+  <si>
+    <t>527600.00</t>
+  </si>
+  <si>
+    <t>19085.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>1573.00</t>
+  </si>
+  <si>
+    <t>8887.78</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>3449.40</t>
+  </si>
+  <si>
+    <t>35305.70</t>
+  </si>
+  <si>
+    <t>2831.09</t>
+  </si>
+  <si>
+    <t>257.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>883.80</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>9606.00</t>
+  </si>
+  <si>
+    <t>6603.30</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4640.90</t>
+  </si>
+  <si>
+    <t>10609.33</t>
+  </si>
+  <si>
+    <t>2089.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>2115.00</t>
+  </si>
+  <si>
+    <t>1220.00</t>
+  </si>
+  <si>
+    <t>11854.02</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>6294.99</t>
+  </si>
+  <si>
+    <t>32445.00</t>
+  </si>
+  <si>
+    <t>19750.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>114.59</t>
+  </si>
+  <si>
+    <t>696.00</t>
+  </si>
+  <si>
+    <t>2189.39</t>
+  </si>
+  <si>
+    <t>391.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4101.00</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>889.80</t>
+  </si>
+  <si>
+    <t>1053.60</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>39796.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>32380.00</t>
+  </si>
+  <si>
+    <t>48800.00</t>
+  </si>
+  <si>
+    <t>2812.10</t>
+  </si>
+  <si>
+    <t>13770.00</t>
+  </si>
+  <si>
+    <t>20625.00</t>
+  </si>
+  <si>
+    <t>21943.00</t>
+  </si>
+  <si>
+    <t>3990.00</t>
+  </si>
+  <si>
+    <t>81407.00</t>
+  </si>
+  <si>
+    <t>61257.79</t>
+  </si>
+  <si>
+    <t>572.03</t>
+  </si>
+  <si>
+    <t>45900.00</t>
+  </si>
+  <si>
+    <t>28314.00</t>
+  </si>
+  <si>
+    <t>2670.00</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t>2939.00</t>
+  </si>
+  <si>
+    <t>600235.87</t>
+  </si>
+  <si>
+    <t>3189.89</t>
+  </si>
+  <si>
+    <t>247.76</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>23953.63</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>8196.00</t>
+  </si>
+  <si>
+    <t>292.74</t>
+  </si>
+  <si>
+    <t>14835.92</t>
+  </si>
+  <si>
+    <t>55520.80</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>346.00</t>
+  </si>
+  <si>
+    <t>113151.40</t>
+  </si>
+  <si>
+    <t>6978.00</t>
+  </si>
+  <si>
+    <t>6880.00</t>
+  </si>
+  <si>
+    <t>49202.35</t>
+  </si>
+  <si>
+    <t>10061.00</t>
+  </si>
+  <si>
+    <t>10144.80</t>
+  </si>
+  <si>
+    <t>10739.81</t>
+  </si>
+  <si>
+    <t>1035.20</t>
+  </si>
+  <si>
+    <t>11246.22</t>
+  </si>
+  <si>
+    <t>2750.00</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>7753.80</t>
+  </si>
+  <si>
+    <t>6390.00</t>
+  </si>
+  <si>
+    <t>4686.00</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>63000.00</t>
+  </si>
+  <si>
+    <t>641152.00</t>
+  </si>
+  <si>
+    <t>84700.00</t>
+  </si>
+  <si>
+    <t>11609.00</t>
+  </si>
+  <si>
+    <t>16371.00</t>
+  </si>
+  <si>
+    <t>11902.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>15372.00</t>
+  </si>
+  <si>
+    <t>66400.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>2190.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>36500.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>261940.00</t>
+  </si>
+  <si>
+    <t>16626.05</t>
+  </si>
+  <si>
+    <t>309.00</t>
+  </si>
+  <si>
+    <t>11735.55</t>
+  </si>
+  <si>
+    <t>6748.88</t>
+  </si>
+  <si>
+    <t>3360.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>2020.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>25116.58</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>13260.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>2359.50</t>
+  </si>
+  <si>
+    <t>4750.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>144.42</t>
+  </si>
+  <si>
+    <t>9515.00</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>4997.60</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>19830.00</t>
+  </si>
+  <si>
+    <t>22.34</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>1078.00</t>
+  </si>
+  <si>
+    <t>5155.00</t>
+  </si>
+  <si>
+    <t>6433.85</t>
+  </si>
+  <si>
+    <t>65.32</t>
+  </si>
+  <si>
+    <t>26897.31</t>
+  </si>
+  <si>
+    <t>6782.14</t>
+  </si>
+  <si>
+    <t>3690.50</t>
+  </si>
+  <si>
+    <t>8240.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>13350.00</t>
+  </si>
+  <si>
+    <t>1215.89</t>
+  </si>
+  <si>
+    <t>4106.53</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>3551.20</t>
+  </si>
+  <si>
+    <t>48249.25</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>50207.10</t>
+  </si>
+  <si>
+    <t>2135.98</t>
+  </si>
+  <si>
+    <t>36630.00</t>
+  </si>
+  <si>
+    <t>65894.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>8844.00</t>
+  </si>
+  <si>
+    <t>62594.13</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>44400.00</t>
+  </si>
+  <si>
+    <t>3019313.66</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>18400.00</t>
+  </si>
+  <si>
+    <t>139500.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>146000.00</t>
+  </si>
+  <si>
+    <t>141100.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>347000.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>140250.00</t>
+  </si>
+  <si>
+    <t>34623.36</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>69450.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>83734.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>1184830.00</t>
+  </si>
+  <si>
+    <t>7405.00</t>
+  </si>
+  <si>
+    <t>25878.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>3570.00</t>
+  </si>
+  <si>
+    <t>47845.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
   </si>
 </sst>
 </file>
